--- a/biology/Histoire de la zoologie et de la botanique/Franz_Thonner/Franz_Thonner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Franz_Thonner/Franz_Thonner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Thonner (né à Vienne le 11 mars 1863 et mort à Smichov, Prague le 21 avril 1928) est un botaniste, explorateur, anthropologue et ethnologue autrichien.
 </t>
@@ -511,10 +523,12 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Franz Thonner est un scientifique travaillant avec des moyens indépendants, qui a exploré l'Europe et l'Afrique du Nord. Au printemps de 1896, il fait son premier voyage à l'intérieur de l'Afrique pour une exploration botanique, anthropologique et ethnographique de la partie nord du bassin du Congo. Sa vaste collection de plantes, déposée dans l'herbier du Jardin botanique de l'État à Bruxelles, a été étudiée par Émile De Wildeman[1].
-En 1891, âgé de 28 ans, il publie à titre privé une clé des familles de plantes à fleurs du monde. Malgré sa traduction en anglais dès 1895, cette clé a été largement ignorée dans le monde anglo-saxon. Une deuxième édition basée sur la classification d'Engler[2] paraît en 1917. La clé de Thonner de 1891 a été traduite en anglais pour la deuxième fois en 1981[3] et est ainsi devenue plus accessible aux botanistes anglophones, rivalisant avec celle de John Hutchinson et avec Families of Angiosperms de Bertel Hansen &amp; Knud Rahn (1969). La clé couvre les gymnospermes et les angiospermes et a été conçue pour une utilisation sur le terrain. Outre les caractères naturels, et lorsque ceux-ci laissent des incertitudes, Thonner fait appel à d'autres caractères discriminants afin de permettre l'identification de la famille. La répartition géographique est aussi utilisée pour aider à l'identification.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franz Thonner est un scientifique travaillant avec des moyens indépendants, qui a exploré l'Europe et l'Afrique du Nord. Au printemps de 1896, il fait son premier voyage à l'intérieur de l'Afrique pour une exploration botanique, anthropologique et ethnographique de la partie nord du bassin du Congo. Sa vaste collection de plantes, déposée dans l'herbier du Jardin botanique de l'État à Bruxelles, a été étudiée par Émile De Wildeman.
+En 1891, âgé de 28 ans, il publie à titre privé une clé des familles de plantes à fleurs du monde. Malgré sa traduction en anglais dès 1895, cette clé a été largement ignorée dans le monde anglo-saxon. Une deuxième édition basée sur la classification d'Engler paraît en 1917. La clé de Thonner de 1891 a été traduite en anglais pour la deuxième fois en 1981 et est ainsi devenue plus accessible aux botanistes anglophones, rivalisant avec celle de John Hutchinson et avec Families of Angiosperms de Bertel Hansen &amp; Knud Rahn (1969). La clé couvre les gymnospermes et les angiospermes et a été conçue pour une utilisation sur le terrain. Outre les caractères naturels, et lorsque ceux-ci laissent des incertitudes, Thonner fait appel à d'autres caractères discriminants afin de permettre l'identification de la famille. La répartition géographique est aussi utilisée pour aider à l'identification.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Anleitung zum Bestimmen der Familien der Phanerogamen, Berlin, R. Friedländer, 1891
 (de) Im afrikanischen Urwald. Meine Reise nach dem Kongo und der Mongalla im Jahre 1896, Berlin, D. Reimer, 1898 (traduction française : Dans la grande forêt de l'Afrique Centrale : Mon voyage au Congo et à la Mongala en 1896, Bruxelles, Oscar Schepens, 1899, [lire en ligne])
